--- a/medicine/Enfance/Georges-Gustave_Toudouze/Georges-Gustave_Toudouze.xlsx
+++ b/medicine/Enfance/Georges-Gustave_Toudouze/Georges-Gustave_Toudouze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Édouard Henri Georges Toudouze, né le 22 juin 1877 à Paris où il meurt le 4 janvier 1972, est un romancier, auteur dramatique, historien et journaliste français. Il a écrit sous les pseudonymes : Georges-Gustave Toudouze, Georges - G. Toudouze, ou Georges G.- Toudouze, dans Les Cahiers de l'Iroise, entre autres.
 Il est le fils du romancier Gustave Toudouze.
@@ -512,13 +524,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né le 22 juin 1877 dans le 9e arrondissement de Paris[1], Georges-Gustave Toudouze est pensionnaire de l'Académie de France à Rome, membre de l'Académie de marine, membre de l'École française archéologique d'Athènes, professeur d'histoire, du théâtre et du costume au Conservatoire national de Paris[2]. Il est titularisé à ce dernier poste en 1913, remplaçant ainsi son beau-père Louis de Gramont.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né le 22 juin 1877 dans le 9e arrondissement de Paris, Georges-Gustave Toudouze est pensionnaire de l'Académie de France à Rome, membre de l'Académie de marine, membre de l'École française archéologique d'Athènes, professeur d'histoire, du théâtre et du costume au Conservatoire national de Paris. Il est titularisé à ce dernier poste en 1913, remplaçant ainsi son beau-père Louis de Gramont.
 Il est le créateur de la série de romans pour la jeunesse Cinq jeunes filles, première série française de l'après-guerre. Il contribue à la revue "Mon journal illustré pour les enfants" (n°37 du 10 juin 1922 avec le texte "Le Domestique et le Compositeur".)
-Les romans de Georges-Gustave Toudouze sont principalement maritimes et prennent souvent pour cadre la Bretagne dont il fait l'apologie[3].
+Les romans de Georges-Gustave Toudouze sont principalement maritimes et prennent souvent pour cadre la Bretagne dont il fait l'apologie.
 Il milite aussi en faveur du nationalisme breton, participant notamment à l'Institut celtique de Bretagne soutenu par les Allemands pendant la Seconde Guerre mondiale.
-Georges-Gustave Toudouze meurt le 4 juillet 1972 dans le 8e arrondissement de Paris[4]. Il est inhumé avec son père à L'Haÿ-les-Roses[5]. Un médaillon de son profil par Paul Landowski orne la tombe.
+Georges-Gustave Toudouze meurt le 4 juillet 1972 dans le 8e arrondissement de Paris. Il est inhumé avec son père à L'Haÿ-les-Roses. Un médaillon de son profil par Paul Landowski orne la tombe.
 </t>
         </is>
       </c>
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Romans et autres écrits
-1900 : La Défense des côtes de Dunkerque à Bayonne au XVIIe siècle, Éd. R. Chapelot, Paris, 375 p.
+          <t>Romans et autres écrits</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1900 : La Défense des côtes de Dunkerque à Bayonne au XVIIe siècle, Éd. R. Chapelot, Paris, 375 p.
 1903 : La Côte d'azur : Cannes, Nice, Monaco, Menton, Collection : Bibliothèque spéciale de la projection. Conférence pour projections no 117, éd. E. Mazo, Paris, 16 p.
 1903 : Une mystérieuse affaire, Éd. Hachette.
 1907 : À travers la presqu'île de Crozon, Morgat et Camaret, Éd. de la Ligue maritime française, Paris, 62 p.
@@ -568,7 +587,7 @@
 1923 : La Grèce au visage d'énigme de Pœstum à Mycènes, d'Agrigente à Troie, de Ségeste à Knossos, Berger-Levrault, 166 p.
 1923 : Le Petit Roi d'Ys, coll. Bibliothèque de la jeunesse, Hachette, roman, 96 p. ; Illustrations d'après Henry Morin. (Ouvrage couronné par l'Académie française)
 1925 : L’Homme qui volait le Gulf-Stream, Gallimard, roman, 252 p.
-1933 : Gaït la mystérieuse (roman publié en feuilleton dans le journal L'Ouest-Éclair[6]).
+1933 : Gaït la mystérieuse (roman publié en feuilleton dans le journal L'Ouest-Éclair).
 1938 : Anne de Bretagne : duchesse et reine, Éd. Floury, Paris, 1938, 268 p.
 1938 : Le Secret de l'île d'acier, Éd. Tallandier, coll. Grandes Aventures et voyages excentriques no 9, 224 pages.
 1943 : Les Équipages de la marine française, Éd. militaires illustrées, Brest, 146 p. - Ouvrage couronné par l'Académie Française et par l'Académie des beaux-arts.
@@ -591,10 +610,47 @@
 1960 : Les Trois Connétables Du Guesclin - Clisson - Richemont, Éd. André Bonne.
 1962 : Tanguy fils de la Mer, collection :  Georges-G. Toudouze. « L'Âme de la Bretagne », Éd. André Bonne, In-16, 288 p.
 1967 : Camaret et Vauban, Éd. Alpina, 95 p.
-2003 : Chroniques de La Hougue : “La Bataille de la Hougue : 29 mai 1692” de Georges Toudouze ; “La légende de Barfleur” de Roger Lepelley. Éditions Isoète, Cherbourg-Octeville, 219 p. (fac-sim. de l'éd. de : Paris : R. Chapelot, 1899).
-Romans pour la jeunesse
-Romans hors-série
-1907 : Henri Rivière. Peintre et Imagier  (ill. Henri Rivière), Paris, Henri Floury, 1907, 176 p., 20 × 26 cm (lire en ligne)
+2003 : Chroniques de La Hougue : “La Bataille de la Hougue : 29 mai 1692” de Georges Toudouze ; “La légende de Barfleur” de Roger Lepelley. Éditions Isoète, Cherbourg-Octeville, 219 p. (fac-sim. de l'éd. de : Paris : R. Chapelot, 1899).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Georges-Gustave_Toudouze</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges-Gustave_Toudouze</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Romans hors-série</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1907 : Henri Rivière. Peintre et Imagier  (ill. Henri Rivière), Paris, Henri Floury, 1907, 176 p., 20 × 26 cm (lire en ligne)
 1909 : La Sorcière du Vésuve En collaboration avec Gustave Toudouze, collection « Nouvelle collection pour la jeunesse », illustré de 52 gravures par Éd. Zier, Éd. Hachette, Paris, 275 p.
 1909 : La Dernière des Spartiates collection Bibliothèque des écoles et des familles, éditions Hachette, in-8°, 323 p.
 1909 : François Ier : le Roi chevalier Georges-Gustave Toudouze et Albert Robida, Éd. Boivin, Paris, 82 p.
@@ -605,21 +661,59 @@
 1921 : Les Sous-marins fantômes  (ill. G. Dutriac), Paris, Hachette, coll. « Romans d'aventure » (réimpr. 1927, 1931, 1958, 1960, 1961) (1re éd. 1921), 207 p. (lire en ligne)
 1927 : Pierrette la téméraire Hachette, Bibliothèque de la jeunesse, illustrations de G. Dutriac, 80 p. Rééditions : 1956, coll. Idéal-Bibliothèque, Éd. Hachette, Illustré par Françoise Bertier, roman, 186 p.
 1928 : Aux feux tournants des phares Éd. Eugène Figuière, Paris, roman, 209 p. Rééditions : 1946 ; 1966, éd. A. Bonne, Paris, 191 p. ; 1977, coll. Bibliothèque verte, Hachette, illustrations de Paul Durand, 153 p.
-Résumé[7] : « J'entends une sirène de bateau. C'en est un qui vient sur nous. II ne peut pas nous voir puisque le feu n'est pas allumé... Le bateau est perdu. Alors, ça, moi je ne veux pas. » Ce message trouvé dans une bouteille jetée à la mer va expliquer la décision désespérée prise par le gardien de Men-Guen-Braz pour sauver un navire perdu dans la brume. Avec son parler simple, direct et rude de marin breton, G. G.-Toudouze nous fait vivre dans ce volume huit histoires dramatiques de gardiens de phare.
+Résumé : « J'entends une sirène de bateau. C'en est un qui vient sur nous. II ne peut pas nous voir puisque le feu n'est pas allumé... Le bateau est perdu. Alors, ça, moi je ne veux pas. » Ce message trouvé dans une bouteille jetée à la mer va expliquer la décision désespérée prise par le gardien de Men-Guen-Braz pour sauver un navire perdu dans la brume. Avec son parler simple, direct et rude de marin breton, G. G.-Toudouze nous fait vivre dans ce volume huit histoires dramatiques de gardiens de phare.
 1933 : Le Mousse du "Korrigan" Hachette, coll. Bibliothèque des écoles et des familles, illustrations de Henri Faivre, roman, 135 p.
 1940 : Gaït la mystérieuse Ed. J. Tallandier, coll. Grandes aventures et voyages excentriques, no 54, roman. Réédition : 1964, Publication : Paris : A. Bonne, coll. L’Âme de la Bretagne.
 1942 : Anne et le mystère breton Hachette, coll. Bibliothèque verte, illustrations de Henri Faivre, roman, 253 p.
-Résumé[8] : Un groupe de jeunes étudiants et étudiantes en vacances décide de parcourir la Bretagne. La route se révèle fertile en émotions ; mais nos campeurs risqueraient fort de passer à côté des sites les plus authentiquement bretons s'ils n'avaient la chance de faire la connaissance d'une jeune fille du pays, Anne, et de son frère Yann-Joël. Avec de tels guides, ils découvrent la vraie Bretagne, ses légendes, ses fées, ses forêts enchantées, ses vieux manoirs. Tous sont pris à son charme étrange et l'un des garçons y trouve le bonheur…
+Résumé : Un groupe de jeunes étudiants et étudiantes en vacances décide de parcourir la Bretagne. La route se révèle fertile en émotions ; mais nos campeurs risqueraient fort de passer à côté des sites les plus authentiquement bretons s'ils n'avaient la chance de faire la connaissance d'une jeune fille du pays, Anne, et de son frère Yann-Joël. Avec de tels guides, ils découvrent la vraie Bretagne, ses légendes, ses fées, ses forêts enchantées, ses vieux manoirs. Tous sont pris à son charme étrange et l'un des garçons y trouve le bonheur…
 1943 : Faïk de Kerloc'h, pupille de l'océan Illustrations de Jim Sévellec, Éd. Landerneau, Édition de propagande cultuelle (sic) bretonne pour la jeunesse, Urz Goanaz Breiz-Ololé, 79 p.
 1951 : La Fille des sirènes Hachette, coll. Bibliothèque verte, illustrations de René-George Gautier, 256 p.
 1952 : Héritière de Neptune Hachette, coll. Bibliothèque verte, illustrations d'Albert Chazelle, roman, 253 p.
-Résumé[8] : Dans les eaux de la mer Égée, un volcan a autrefois sombré. Seules émergent encore certaines parties de son pourtour: c'est l'archipel de Santorin. Sur les fonds environnants gisent maintenant les bâtiments - trirèmes ou frégates - coulés depuis l'Antiquité, ainsi que les vestiges d'une cité engloutie. Des savants français entreprennent de retrouver ces trésors archéologiques. Sur le yacht Amphilrite, équipé à cette fin, Jean Liscoet, prix de Rome de sculpture, cherche l'aventure scientifique. Il y rencontrera l'aventure sous toutes ses formes. La belle et fière Myrto Mavrovouni, fille d'un riche armateur grec et rite-fille d'un illustre corsaire, se montrera experte dans l'art de bouleverser l'existence du jeune homme...
+Résumé : Dans les eaux de la mer Égée, un volcan a autrefois sombré. Seules émergent encore certaines parties de son pourtour: c'est l'archipel de Santorin. Sur les fonds environnants gisent maintenant les bâtiments - trirèmes ou frégates - coulés depuis l'Antiquité, ainsi que les vestiges d'une cité engloutie. Des savants français entreprennent de retrouver ces trésors archéologiques. Sur le yacht Amphilrite, équipé à cette fin, Jean Liscoet, prix de Rome de sculpture, cherche l'aventure scientifique. Il y rencontrera l'aventure sous toutes ses formes. La belle et fière Myrto Mavrovouni, fille d'un riche armateur grec et rite-fille d'un illustre corsaire, se montrera experte dans l'art de bouleverser l'existence du jeune homme...
 1953 : Contrebandière de Sicile Hachette, coll. Bibliothèque verte, illustré par Henri Faivre, roman, 256 p.
 1956 : Un gentilhomme de la mer Hachette, coll. Bibliothèque verte, illustrations de Jean Reschofsky, 256 p., roman.
 1957 : La Fiancée du Loup-de-la-Mer Hachette, coll. Bibliothèque verte no 289, illustrations de Philippe Daure, roman, 255 p.
-1974 : Contes et Légendes de l'Île-de-France Éd. Fernand Nathan, coll. Contes et légendes de tous les pays, 254 p.
-Série Cinq jeunes filles
-Treize titres publiés dans la collection Bibliothèque verte aux éditions Hachette.
+1974 : Contes et Légendes de l'Île-de-France Éd. Fernand Nathan, coll. Contes et légendes de tous les pays, 254 p.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Georges-Gustave_Toudouze</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges-Gustave_Toudouze</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Cinq jeunes filles</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Treize titres publiés dans la collection Bibliothèque verte aux éditions Hachette.
 1954 : Cinq jeunes filles sur “L'Aréthuse” Illustrations de Henri Faivre, 256 p. Réédition : 1960, illustrations de Christian Dufour.
 1955 : Cinq jeunes filles à Venise Illustrations de Henri Faivre, 256 p. Réédition : 1964, nouvelle illustration de couverture de Henri Faivre.
 1957 : Cinq jeunes filles à Capri B. verte no 284, Illustrations de Henri Faivre, 254 p.
@@ -633,68 +727,106 @@
 1965 : Cinq jeunes filles à Majorque B. verte no 288, Illustrations de Henri Faivre, 190 p.
 1966 : Cinq jeunes filles face à Interpol
 B. verte no 313, Illustrations de Henri Faivre, 250 p.
-1967 : Cinq jeunes filles aux périls de l'archipel B. verte no 343, Illustrations de Christiane Dufour, 250 p.
-Théâtre
-Parmi les loups, pièce d'aventures en 3 actes, Paris, Théâtre de l'Odéon, 6 Oct. 1926 mise n scène par Firmin Gémier[9]
+1967 : Cinq jeunes filles aux périls de l'archipel B. verte no 343, Illustrations de Christiane Dufour, 250 p.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Georges-Gustave_Toudouze</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges-Gustave_Toudouze</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les loups, pièce d'aventures en 3 actes, Paris, Théâtre de l'Odéon, 6 Oct. 1926 mise n scène par Firmin Gémier
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Georges-Gustave_Toudouze</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Georges-Gustave_Toudouze</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Commandeur de la Légion d'honneur (1950)[10].</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Commandeur de la Légion d'honneur (1950).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Georges-Gustave_Toudouze</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Georges-Gustave_Toudouze</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prix littéraires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>De l'Académie française
 Prix Sobrier-Arnould 1917 pour Le Petit Roi d'Ys.
@@ -711,31 +843,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Georges-Gustave_Toudouze</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Georges-Gustave_Toudouze</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Bibliothèque nationale de France (pour la bibliographie)
 Notice de L'Annuaire des contemporains (1923)</t>
